--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_18-26.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_18-26.xlsx
@@ -92,6 +92,12 @@
     <t>CLAVIMOX 228.5MG/5ML PD. FOR ORAL SUSP. 70ML</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
   </si>
   <si>
     <t>OLAPEX 10 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>OPLEX N PLUS 10 SUPP.</t>
   </si>
   <si>
     <t>OPLEX-N SYRUP 125ML</t>
@@ -1240,11 +1249,11 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>27.5</v>
+        <v>33</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1260,13 +1269,13 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>92</v>
+        <v>27.5</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
@@ -1278,7 +1287,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1286,13 +1295,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1318,11 +1327,11 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>122.5</v>
+        <v>17</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1330,7 +1339,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1338,17 +1347,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>35</v>
+        <v>122.5</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1356,7 +1365,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1364,17 +1373,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1396,11 +1405,11 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1416,17 +1425,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1434,7 +1443,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1442,13 +1451,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1460,7 +1469,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1468,17 +1477,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1486,7 +1495,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1494,17 +1503,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1512,7 +1521,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1520,17 +1529,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1546,17 +1555,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1564,7 +1573,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1572,17 +1581,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>30.670000000000002</v>
+        <v>30</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1590,7 +1599,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1598,17 +1607,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>100</v>
+        <v>30.670000000000002</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1616,7 +1625,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1624,17 +1633,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1642,7 +1651,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1650,17 +1659,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1668,7 +1677,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1676,17 +1685,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1694,7 +1703,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1702,13 +1711,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1720,7 +1729,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1728,13 +1737,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>-290</v>
+        <v>39</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1746,7 +1755,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1754,13 +1763,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>200</v>
+        <v>-290</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1772,7 +1781,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1780,13 +1789,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1798,7 +1807,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1806,13 +1815,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1824,7 +1833,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1832,17 +1841,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>27.329999999999998</v>
+        <v>55</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1858,17 +1867,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>31</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1876,7 +1885,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1884,13 +1893,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1902,7 +1911,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1916,7 +1925,7 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1928,7 +1937,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1936,17 +1945,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>-57</v>
+        <v>75</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1954,7 +1963,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1962,17 +1971,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>39</v>
+        <v>-57</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1980,7 +1989,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1988,17 +1997,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2006,7 +2015,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2020,11 +2029,11 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2032,7 +2041,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2040,17 +2049,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>76.439999999999998</v>
+        <v>43</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2058,7 +2067,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2066,17 +2075,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>31</v>
+        <v>76.439999999999998</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2084,7 +2093,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2092,17 +2101,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2110,7 +2119,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2118,17 +2127,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2136,7 +2145,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2144,13 +2153,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2162,7 +2171,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2170,17 +2179,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2188,7 +2197,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2196,17 +2205,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>7.0499999999999998</v>
+        <v>160</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2214,7 +2223,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2222,13 +2231,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>47.670000000000002</v>
+        <v>67</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2248,17 +2257,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>89.099999999999994</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2274,17 +2283,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>-185</v>
+        <v>47.670000000000002</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2292,7 +2301,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2300,13 +2309,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>71</v>
+        <v>89.099999999999994</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2318,7 +2327,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2326,17 +2335,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>45.5</v>
+        <v>-185</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2352,17 +2361,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2378,17 +2387,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>70</v>
+        <v>45.5</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2396,7 +2405,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2404,13 +2413,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2422,7 +2431,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2436,11 +2445,11 @@
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2448,7 +2457,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2456,17 +2465,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2474,7 +2483,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2482,17 +2491,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2500,7 +2509,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2508,17 +2517,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2534,17 +2543,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2552,7 +2561,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2560,17 +2569,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2578,7 +2587,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2586,17 +2595,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2612,17 +2621,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2630,7 +2639,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2638,13 +2647,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2656,7 +2665,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2664,13 +2673,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2690,17 +2699,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2708,7 +2717,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2716,13 +2725,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -2734,7 +2743,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2742,17 +2751,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>9</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2760,7 +2769,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2768,13 +2777,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2786,7 +2795,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2800,7 +2809,7 @@
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>68.599999999999994</v>
+        <v>150</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -2812,7 +2821,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2820,13 +2829,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2846,51 +2855,103 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>70</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" ht="24.75" customHeight="1">
+      <c r="A79" s="6">
+        <v>76</v>
+      </c>
+      <c t="s" r="B79" s="7">
+        <v>107</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c t="s" r="H79" s="8">
+        <v>108</v>
+      </c>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="9">
+        <v>30</v>
+      </c>
+      <c r="M79" s="9"/>
+      <c t="s" r="N79" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" ht="25.5" customHeight="1">
+      <c r="A80" s="6">
+        <v>77</v>
+      </c>
+      <c t="s" r="B80" s="7">
+        <v>109</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c t="s" r="H80" s="8">
+        <v>108</v>
+      </c>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="9">
+        <v>70</v>
+      </c>
+      <c r="M80" s="9"/>
+      <c t="s" r="N80" s="7">
         <v>23</v>
       </c>
     </row>
-    <row r="79" ht="25.5" customHeight="1">
-      <c r="K79" s="10">
-        <v>3357.3600000000001</v>
-      </c>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="10"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="11">
-        <v>107</v>
-      </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c t="s" r="F80" s="12">
-        <v>108</v>
-      </c>
-      <c r="G80" s="12"/>
-      <c r="H80" s="13"/>
-      <c t="s" r="I80" s="14">
-        <v>109</v>
-      </c>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="14"/>
-      <c r="N80" s="14"/>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="K81" s="10">
+        <v>3406.3600000000001</v>
+      </c>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="11">
+        <v>110</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c t="s" r="F82" s="12">
+        <v>111</v>
+      </c>
+      <c r="G82" s="12"/>
+      <c r="H82" s="13"/>
+      <c t="s" r="I82" s="14">
+        <v>112</v>
+      </c>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="236">
+  <mergeCells count="242">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3123,10 +3184,16 @@
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="I80:N80"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="I82:N82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
